--- a/Donnees/2000 Canarias Las Palmas.xlsx
+++ b/Donnees/2000 Canarias Las Palmas.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c2f1b5ee3ad3a97/Desktop/COURS M2 EEET - MP/Méthodes (6ECTS)/Analyse économétrique de la demande/Projet Analyse Econo Demande/Donnees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FED62F17-5D5D-4A64-A022-F9D9EC18C0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59CA7E4C-4563-4ADD-AAB5-A561077DD6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{75FD28D4-32F5-4910-85A9-861CBEFC01EA}"/>
+    <workbookView xWindow="4620" yWindow="1860" windowWidth="16140" windowHeight="11820" xr2:uid="{FB0DEB6E-1A71-46C3-9DBD-C57DACA60B49}"/>
   </bookViews>
   <sheets>
-    <sheet name="estadisticas - 2025-05-01T11110" sheetId="1" r:id="rId1"/>
+    <sheet name="estadisticas - 2025-05-04T11095" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Tipo convocatoria</t>
   </si>
@@ -67,7 +67,7 @@
     <t>PARTIDO POPULAR</t>
   </si>
   <si>
-    <t>351.110</t>
+    <t>210.774</t>
   </si>
   <si>
     <t>Diputados</t>
@@ -76,19 +76,19 @@
     <t>COALICION CANARIA</t>
   </si>
   <si>
-    <t>248.261</t>
-  </si>
-  <si>
-    <t>PARTIDO SOCIALISTA OBRERO ESPAÃ‘OL - PROGRESISTAS</t>
-  </si>
-  <si>
-    <t>186.363</t>
+    <t>113.075</t>
+  </si>
+  <si>
+    <t>PARTIDO SOCIALISTA OBRERO ESPAÃ‘OL</t>
+  </si>
+  <si>
+    <t>80.695</t>
   </si>
   <si>
     <t>IZQUIERDA UNIDA CANARIA</t>
   </si>
   <si>
-    <t>20.214</t>
+    <t>10.941</t>
   </si>
   <si>
     <t>PARTIDO DE INDEPENDIENTES DE LANZAROTE</t>
@@ -100,31 +100,22 @@
     <t>LOS VERDES DE CANARIAS</t>
   </si>
   <si>
-    <t>10.302</t>
+    <t>4.982</t>
+  </si>
+  <si>
+    <t>UNIDAD PROGRESISTAS DE CANARIAS</t>
   </si>
   <si>
     <t>PARTIDO COMUNISTA DEL PUEBLO CANARIO</t>
   </si>
   <si>
-    <t>1.408</t>
-  </si>
-  <si>
     <t>PARTIDO HUMANISTA</t>
   </si>
   <si>
-    <t>1.131</t>
+    <t>LA FALANGE</t>
   </si>
   <si>
     <t>UNION CENTRISTA-CENTRO DEMOCRATICO Y SOCIAL</t>
-  </si>
-  <si>
-    <t>1.060</t>
-  </si>
-  <si>
-    <t>UNIDAD PROGRESISTAS DE CANARIAS</t>
-  </si>
-  <si>
-    <t>LA FALANGE</t>
   </si>
   <si>
     <t>TAGOROR PENSIONISTA DE CANARIAS</t>
@@ -990,7 +981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA2F94C-3BA9-4E53-A11C-3F1B561AF7D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C868FC5-22CF-451E-BC10-F3218363EEB0}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1051,6 +1042,9 @@
       <c r="C2">
         <v>5</v>
       </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
@@ -1058,19 +1052,19 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>41.81</v>
+        <v>48.05</v>
       </c>
       <c r="K2">
-        <v>25.2</v>
+        <v>29.36</v>
       </c>
       <c r="L2">
-        <v>42.17</v>
+        <v>48.49</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1083,6 +1077,9 @@
       <c r="C3">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
@@ -1090,19 +1087,19 @@
         <v>18</v>
       </c>
       <c r="J3">
-        <v>29.56</v>
+        <v>25.78</v>
       </c>
       <c r="K3">
-        <v>17.82</v>
+        <v>15.75</v>
       </c>
       <c r="L3">
-        <v>29.82</v>
+        <v>26.01</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1115,6 +1112,9 @@
       <c r="C4">
         <v>5</v>
       </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
       <c r="H4" t="s">
         <v>19</v>
       </c>
@@ -1122,19 +1122,19 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <v>22.19</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="K4">
-        <v>13.37</v>
+        <v>11.24</v>
       </c>
       <c r="L4">
-        <v>22.38</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="M4" t="s">
         <v>16</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1147,6 +1147,9 @@
       <c r="C5">
         <v>5</v>
       </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
@@ -1154,13 +1157,13 @@
         <v>22</v>
       </c>
       <c r="J5">
-        <v>2.41</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="K5">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="L5">
-        <v>2.4300000000000002</v>
+        <v>2.52</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>
@@ -1179,6 +1182,9 @@
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
       <c r="H6" t="s">
         <v>23</v>
       </c>
@@ -1186,13 +1192,13 @@
         <v>24</v>
       </c>
       <c r="J6">
-        <v>1.23</v>
+        <v>2.35</v>
       </c>
       <c r="K6">
-        <v>0.74</v>
+        <v>1.44</v>
       </c>
       <c r="L6">
-        <v>1.24</v>
+        <v>2.37</v>
       </c>
       <c r="M6" t="s">
         <v>16</v>
@@ -1211,6 +1217,9 @@
       <c r="C7">
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
       <c r="H7" t="s">
         <v>25</v>
       </c>
@@ -1218,13 +1227,13 @@
         <v>26</v>
       </c>
       <c r="J7">
-        <v>1.23</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K7">
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
       <c r="L7">
-        <v>1.24</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M7" t="s">
         <v>16</v>
@@ -1243,20 +1252,23 @@
       <c r="C8">
         <v>5</v>
       </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
       <c r="H8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
-        <v>28</v>
+      <c r="I8">
+        <v>980</v>
       </c>
       <c r="J8">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="K8">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L8">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="M8" t="s">
         <v>16</v>
@@ -1275,20 +1287,23 @@
       <c r="C9">
         <v>5</v>
       </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
       <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>752</v>
       </c>
       <c r="J9">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="K9">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="L9">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="M9" t="s">
         <v>16</v>
@@ -1307,20 +1322,23 @@
       <c r="C10">
         <v>5</v>
       </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
       <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>630</v>
       </c>
       <c r="J10">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K10">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="L10">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M10" t="s">
         <v>16</v>
@@ -1339,20 +1357,23 @@
       <c r="C11">
         <v>5</v>
       </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>980</v>
+        <v>478</v>
       </c>
       <c r="J11">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="K11">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L11">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="M11" t="s">
         <v>16</v>
@@ -1371,11 +1392,14 @@
       <c r="C12">
         <v>5</v>
       </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I12">
-        <v>809</v>
+        <v>437</v>
       </c>
       <c r="J12">
         <v>0.1</v>
@@ -1403,20 +1427,23 @@
       <c r="C13">
         <v>5</v>
       </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I13">
         <v>319</v>
       </c>
       <c r="J13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K13">
         <v>0.04</v>
       </c>
-      <c r="K13">
-        <v>0.02</v>
-      </c>
       <c r="L13">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M13" t="s">
         <v>16</v>
@@ -1435,20 +1462,23 @@
       <c r="C14">
         <v>5</v>
       </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I14">
         <v>301</v>
       </c>
       <c r="J14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K14">
         <v>0.04</v>
       </c>
-      <c r="K14">
-        <v>0.02</v>
-      </c>
       <c r="L14">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M14" t="s">
         <v>16</v>
